--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H2">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>3.042702889975556</v>
+        <v>6.847572914111111</v>
       </c>
       <c r="R2">
-        <v>27.38432600978</v>
+        <v>61.628156227</v>
       </c>
       <c r="S2">
-        <v>0.07752224758123731</v>
+        <v>0.0841633277303194</v>
       </c>
       <c r="T2">
-        <v>0.07752224758123731</v>
+        <v>0.0841633277303194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H3">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>0.6617977307538889</v>
+        <v>0.6784845994988888</v>
       </c>
       <c r="R3">
-        <v>5.956179576785</v>
+        <v>6.10636139549</v>
       </c>
       <c r="S3">
-        <v>0.01686133986372102</v>
+        <v>0.008339235291664233</v>
       </c>
       <c r="T3">
-        <v>0.01686133986372102</v>
+        <v>0.008339235291664235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H4">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>1.283512750119667</v>
+        <v>1.720893281327111</v>
       </c>
       <c r="R4">
-        <v>11.551614751077</v>
+        <v>15.488039531944</v>
       </c>
       <c r="S4">
-        <v>0.03270144893747774</v>
+        <v>0.02115145133055362</v>
       </c>
       <c r="T4">
-        <v>0.03270144893747774</v>
+        <v>0.02115145133055362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,40 +729,40 @@
         <v>15.504521</v>
       </c>
       <c r="I5">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J5">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>13.54037382522889</v>
+        <v>29.72302811927778</v>
       </c>
       <c r="R5">
-        <v>121.86336442706</v>
+        <v>267.5072530735</v>
       </c>
       <c r="S5">
-        <v>0.3449828162585839</v>
+        <v>0.3653249097333647</v>
       </c>
       <c r="T5">
-        <v>0.3449828162585839</v>
+        <v>0.3653249097333647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +791,10 @@
         <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +809,10 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
         <v>2.945075150327222</v>
@@ -818,10 +821,10 @@
         <v>26.505676352945</v>
       </c>
       <c r="S6">
-        <v>0.07503487958065165</v>
+        <v>0.03619783654389688</v>
       </c>
       <c r="T6">
-        <v>0.07503487958065165</v>
+        <v>0.03619783654389689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -850,10 +853,10 @@
         <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>5.711777677447667</v>
+        <v>7.46982325456578</v>
       </c>
       <c r="R7">
-        <v>51.405999097029</v>
+        <v>67.22840929109201</v>
       </c>
       <c r="S7">
-        <v>0.1455251660288264</v>
+        <v>0.09181138931226566</v>
       </c>
       <c r="T7">
-        <v>0.1455251660288264</v>
+        <v>0.09181138931226566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -906,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H8">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I8">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J8">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N8">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q8">
-        <v>7.359182551411112</v>
+        <v>23.21857555966667</v>
       </c>
       <c r="R8">
-        <v>66.23264296270001</v>
+        <v>208.967180037</v>
       </c>
       <c r="S8">
-        <v>0.187497889992998</v>
+        <v>0.2853788647116699</v>
       </c>
       <c r="T8">
-        <v>0.187497889992998</v>
+        <v>0.2853788647116699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -968,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H9">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I9">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J9">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +995,22 @@
         <v>1.709545</v>
       </c>
       <c r="O9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q9">
-        <v>1.600646033752778</v>
+        <v>2.300588272243334</v>
       </c>
       <c r="R9">
-        <v>14.405814303775</v>
+        <v>20.70529445019</v>
       </c>
       <c r="S9">
-        <v>0.04078139818623738</v>
+        <v>0.02827646629805614</v>
       </c>
       <c r="T9">
-        <v>0.04078139818623738</v>
+        <v>0.02827646629805615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1030,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H10">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1051,214 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N10">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q10">
-        <v>3.104346686728334</v>
+        <v>5.835161039362668</v>
       </c>
       <c r="R10">
-        <v>27.939120180555</v>
+        <v>52.516449354264</v>
       </c>
       <c r="S10">
-        <v>0.07909281357026647</v>
+        <v>0.07171980161073208</v>
       </c>
       <c r="T10">
-        <v>0.07909281357026647</v>
+        <v>0.07171980161073208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.240007</v>
+      </c>
+      <c r="I11">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J11">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.751166666666666</v>
+      </c>
+      <c r="N11">
+        <v>17.2535</v>
+      </c>
+      <c r="O11">
+        <v>0.7405222614421495</v>
+      </c>
+      <c r="P11">
+        <v>0.7405222614421495</v>
+      </c>
+      <c r="Q11">
+        <v>0.4601067527222222</v>
+      </c>
+      <c r="R11">
+        <v>4.1409607745</v>
+      </c>
+      <c r="S11">
+        <v>0.005655159266795514</v>
+      </c>
+      <c r="T11">
+        <v>0.005655159266795514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.240007</v>
+      </c>
+      <c r="I12">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J12">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.709545</v>
+      </c>
+      <c r="O12">
+        <v>0.07337387367415998</v>
+      </c>
+      <c r="P12">
+        <v>0.07337387367416</v>
+      </c>
+      <c r="Q12">
+        <v>0.04558919631277777</v>
+      </c>
+      <c r="R12">
+        <v>0.4103027668149999</v>
+      </c>
+      <c r="S12">
+        <v>0.0005603355405427267</v>
+      </c>
+      <c r="T12">
+        <v>0.0005603355405427269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.240007</v>
+      </c>
+      <c r="I13">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J13">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.445350666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.336052</v>
+      </c>
+      <c r="O13">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="P13">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="Q13">
+        <v>0.1156314258182222</v>
+      </c>
+      <c r="R13">
+        <v>1.040682832364</v>
+      </c>
+      <c r="S13">
+        <v>0.001421222630139231</v>
+      </c>
+      <c r="T13">
+        <v>0.001421222630139231</v>
       </c>
     </row>
   </sheetData>
